--- a/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST/AVERAGE_10_9_matched_error_tables_latest.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST/AVERAGE_10_9_matched_error_tables_latest.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.02656313719231285</v>
+        <v>-0.03451060989511129</v>
       </c>
       <c r="C2">
-        <v>1.540743550055983</v>
+        <v>1.472147746012473</v>
       </c>
       <c r="D2">
-        <v>9.314719479571048</v>
+        <v>8.907389105311308</v>
       </c>
       <c r="E2">
-        <v>3.052002535970612</v>
+        <v>2.984524937961033</v>
       </c>
       <c r="F2">
-        <v>3.123705867996706</v>
+        <v>3.051397271829799</v>
       </c>
       <c r="G2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.1079932479918366</v>
+        <v>-0.1106822175073481</v>
       </c>
       <c r="C3">
-        <v>1.560742037820905</v>
+        <v>1.485348127483025</v>
       </c>
       <c r="D3">
-        <v>9.146987157524832</v>
+        <v>8.723650662140232</v>
       </c>
       <c r="E3">
-        <v>3.024398643949708</v>
+        <v>2.953582682462137</v>
       </c>
       <c r="F3">
-        <v>3.09711007985003</v>
+        <v>3.020964860020825</v>
       </c>
       <c r="G3">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.592410284164177</v>
+        <v>-0.5713011636365682</v>
       </c>
       <c r="C4">
-        <v>1.111636476624462</v>
+        <v>1.053179700887051</v>
       </c>
       <c r="D4">
-        <v>4.234496096471586</v>
+        <v>4.026630981043165</v>
       </c>
       <c r="E4">
-        <v>2.057789128281026</v>
+        <v>2.006646700603563</v>
       </c>
       <c r="F4">
-        <v>2.021866295670024</v>
+        <v>1.971105846864699</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.1678823973115669</v>
+        <v>-0.166036682263726</v>
       </c>
       <c r="C5">
-        <v>0.6673772379177814</v>
+        <v>0.6285186396184349</v>
       </c>
       <c r="D5">
-        <v>0.8805490656237701</v>
+        <v>0.8305896743800926</v>
       </c>
       <c r="E5">
-        <v>0.9383757592903655</v>
+        <v>0.911366926314584</v>
       </c>
       <c r="F5">
-        <v>0.9485347401720058</v>
+        <v>0.9193942482462926</v>
       </c>
       <c r="G5">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.1295008490144458</v>
+        <v>-0.1280209040135819</v>
       </c>
       <c r="C6">
-        <v>0.7662385059501409</v>
+        <v>0.7182792096296192</v>
       </c>
       <c r="D6">
-        <v>0.9906092077163893</v>
+        <v>0.930922228823257</v>
       </c>
       <c r="E6">
-        <v>0.9952935284208319</v>
+        <v>0.9648431109891685</v>
       </c>
       <c r="F6">
-        <v>1.015442450096239</v>
+        <v>0.9825173072328391</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.1688433107508296</v>
+        <v>-0.1613809308236712</v>
       </c>
       <c r="C7">
-        <v>0.7478873192994469</v>
+        <v>0.6969901999678998</v>
       </c>
       <c r="D7">
-        <v>0.7984807942411476</v>
+        <v>0.7440183132057626</v>
       </c>
       <c r="E7">
-        <v>0.8935775255908955</v>
+        <v>0.8625649617308615</v>
       </c>
       <c r="F7">
-        <v>0.904486609255127</v>
+        <v>0.8718992504770149</v>
       </c>
       <c r="G7">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.06772391614151008</v>
+        <v>-0.06310423029847312</v>
       </c>
       <c r="C8">
-        <v>0.6739855595615339</v>
+        <v>0.6271081964451903</v>
       </c>
       <c r="D8">
-        <v>0.649296642456299</v>
+        <v>0.5990212621699853</v>
       </c>
       <c r="E8">
-        <v>0.8057894529319052</v>
+        <v>0.7739646388369338</v>
       </c>
       <c r="F8">
-        <v>0.8292712390293905</v>
+        <v>0.7951283312657454</v>
       </c>
       <c r="G8">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.01346004321724677</v>
+        <v>0.003107267299192557</v>
       </c>
       <c r="C9">
-        <v>0.567475806100277</v>
+        <v>0.5393758537464697</v>
       </c>
       <c r="D9">
-        <v>0.4496153575053103</v>
+        <v>0.4187293164217235</v>
       </c>
       <c r="E9">
-        <v>0.6705336363712937</v>
+        <v>0.6470929735530463</v>
       </c>
       <c r="F9">
-        <v>0.6939284015726541</v>
+        <v>0.6683070442536863</v>
       </c>
       <c r="G9">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.003282078392350424</v>
+        <v>0.01079506215789655</v>
       </c>
       <c r="C10">
-        <v>0.5137458099827573</v>
+        <v>0.4821603736089785</v>
       </c>
       <c r="D10">
-        <v>0.4204134463156201</v>
+        <v>0.3882225284189086</v>
       </c>
       <c r="E10">
-        <v>0.6483929721362038</v>
+        <v>0.6230750584150425</v>
       </c>
       <c r="F10">
-        <v>0.67286056618673</v>
+        <v>0.6448471538599968</v>
       </c>
       <c r="G10">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.03075946168065646</v>
+        <v>0.03588466164625848</v>
       </c>
       <c r="C11">
-        <v>0.5980314146476792</v>
+        <v>0.5517454314036715</v>
       </c>
       <c r="D11">
-        <v>0.4955307037725026</v>
+        <v>0.4354142101678629</v>
       </c>
       <c r="E11">
-        <v>0.7039394176862827</v>
+        <v>0.6598592351159926</v>
       </c>
       <c r="F11">
-        <v>0.7319835648635974</v>
+        <v>0.6837549615721854</v>
       </c>
       <c r="G11">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST/AVERAGE_10_9_matched_error_tables_latest.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST/AVERAGE_10_9_matched_error_tables_latest.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.03451060989511129</v>
+        <v>-0.1106822175073481</v>
       </c>
       <c r="C2">
-        <v>1.472147746012473</v>
+        <v>1.485348127483025</v>
       </c>
       <c r="D2">
-        <v>8.907389105311308</v>
+        <v>8.723650662140232</v>
       </c>
       <c r="E2">
-        <v>2.984524937961033</v>
+        <v>2.953582682462137</v>
       </c>
       <c r="F2">
-        <v>3.051397271829799</v>
+        <v>3.020964860020825</v>
       </c>
       <c r="G2">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.1106822175073481</v>
+        <v>-0.5713011636365682</v>
       </c>
       <c r="C3">
-        <v>1.485348127483025</v>
+        <v>1.053179700887051</v>
       </c>
       <c r="D3">
-        <v>8.723650662140232</v>
+        <v>4.026630981043165</v>
       </c>
       <c r="E3">
-        <v>2.953582682462137</v>
+        <v>2.006646700603563</v>
       </c>
       <c r="F3">
-        <v>3.020964860020825</v>
+        <v>1.971105846864699</v>
       </c>
       <c r="G3">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.5713011636365682</v>
+        <v>-0.166036682263726</v>
       </c>
       <c r="C4">
-        <v>1.053179700887051</v>
+        <v>0.6285186396184349</v>
       </c>
       <c r="D4">
-        <v>4.026630981043165</v>
+        <v>0.8305896743800926</v>
       </c>
       <c r="E4">
-        <v>2.006646700603563</v>
+        <v>0.911366926314584</v>
       </c>
       <c r="F4">
-        <v>1.971105846864699</v>
+        <v>0.9193942482462926</v>
       </c>
       <c r="G4">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.166036682263726</v>
+        <v>-0.1280209040135819</v>
       </c>
       <c r="C5">
-        <v>0.6285186396184349</v>
+        <v>0.7182792096296192</v>
       </c>
       <c r="D5">
-        <v>0.8305896743800926</v>
+        <v>0.930922228823257</v>
       </c>
       <c r="E5">
-        <v>0.911366926314584</v>
+        <v>0.9648431109891685</v>
       </c>
       <c r="F5">
-        <v>0.9193942482462926</v>
+        <v>0.9825173072328391</v>
       </c>
       <c r="G5">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.1280209040135819</v>
+        <v>-0.1613809308236712</v>
       </c>
       <c r="C6">
-        <v>0.7182792096296192</v>
+        <v>0.6969901999678998</v>
       </c>
       <c r="D6">
-        <v>0.930922228823257</v>
+        <v>0.7440183132057626</v>
       </c>
       <c r="E6">
-        <v>0.9648431109891685</v>
+        <v>0.8625649617308615</v>
       </c>
       <c r="F6">
-        <v>0.9825173072328391</v>
+        <v>0.8718992504770149</v>
       </c>
       <c r="G6">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.1613809308236712</v>
+        <v>-0.06310423029847312</v>
       </c>
       <c r="C7">
-        <v>0.6969901999678998</v>
+        <v>0.6271081964451903</v>
       </c>
       <c r="D7">
-        <v>0.7440183132057626</v>
+        <v>0.5990212621699853</v>
       </c>
       <c r="E7">
-        <v>0.8625649617308615</v>
+        <v>0.7739646388369338</v>
       </c>
       <c r="F7">
-        <v>0.8718992504770149</v>
+        <v>0.7951283312657454</v>
       </c>
       <c r="G7">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.06310423029847312</v>
+        <v>0.003107267299192557</v>
       </c>
       <c r="C8">
-        <v>0.6271081964451903</v>
+        <v>0.5393758537464697</v>
       </c>
       <c r="D8">
-        <v>0.5990212621699853</v>
+        <v>0.4187293164217235</v>
       </c>
       <c r="E8">
-        <v>0.7739646388369338</v>
+        <v>0.6470929735530463</v>
       </c>
       <c r="F8">
-        <v>0.7951283312657454</v>
+        <v>0.6683070442536863</v>
       </c>
       <c r="G8">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.003107267299192557</v>
+        <v>0.01079506215789655</v>
       </c>
       <c r="C9">
-        <v>0.5393758537464697</v>
+        <v>0.4821603736089785</v>
       </c>
       <c r="D9">
-        <v>0.4187293164217235</v>
+        <v>0.3882225284189086</v>
       </c>
       <c r="E9">
-        <v>0.6470929735530463</v>
+        <v>0.6230750584150425</v>
       </c>
       <c r="F9">
-        <v>0.6683070442536863</v>
+        <v>0.6448471538599968</v>
       </c>
       <c r="G9">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.01079506215789655</v>
+        <v>0.03588466164625848</v>
       </c>
       <c r="C10">
-        <v>0.4821603736089785</v>
+        <v>0.5517454314036715</v>
       </c>
       <c r="D10">
-        <v>0.3882225284189086</v>
+        <v>0.4354142101678629</v>
       </c>
       <c r="E10">
-        <v>0.6230750584150425</v>
+        <v>0.6598592351159926</v>
       </c>
       <c r="F10">
-        <v>0.6448471538599968</v>
+        <v>0.6837549615721854</v>
       </c>
       <c r="G10">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.03588466164625848</v>
+        <v>0.009683504591838199</v>
       </c>
       <c r="C11">
-        <v>0.5517454314036715</v>
+        <v>0.5061424767813365</v>
       </c>
       <c r="D11">
-        <v>0.4354142101678629</v>
+        <v>0.3656888178714484</v>
       </c>
       <c r="E11">
-        <v>0.6598592351159926</v>
+        <v>0.6047220997048548</v>
       </c>
       <c r="F11">
-        <v>0.6837549615721854</v>
+        <v>0.6293340143181445</v>
       </c>
       <c r="G11">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST/AVERAGE_10_9_matched_error_tables_latest.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST/AVERAGE_10_9_matched_error_tables_latest.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.1106822175073481</v>
+        <v>-0.03451060989511129</v>
       </c>
       <c r="C2">
-        <v>1.485348127483025</v>
+        <v>1.472147746012473</v>
       </c>
       <c r="D2">
-        <v>8.723650662140232</v>
+        <v>8.907389105311308</v>
       </c>
       <c r="E2">
-        <v>2.953582682462137</v>
+        <v>2.984524937961033</v>
       </c>
       <c r="F2">
-        <v>3.020964860020825</v>
+        <v>3.051397271829799</v>
       </c>
       <c r="G2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.5713011636365682</v>
+        <v>-0.1106822175073481</v>
       </c>
       <c r="C3">
-        <v>1.053179700887051</v>
+        <v>1.485348127483025</v>
       </c>
       <c r="D3">
-        <v>4.026630981043165</v>
+        <v>8.723650662140232</v>
       </c>
       <c r="E3">
-        <v>2.006646700603563</v>
+        <v>2.953582682462137</v>
       </c>
       <c r="F3">
-        <v>1.971105846864699</v>
+        <v>3.020964860020825</v>
       </c>
       <c r="G3">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.166036682263726</v>
+        <v>-0.5713011636365682</v>
       </c>
       <c r="C4">
-        <v>0.6285186396184349</v>
+        <v>1.053179700887051</v>
       </c>
       <c r="D4">
-        <v>0.8305896743800926</v>
+        <v>4.026630981043165</v>
       </c>
       <c r="E4">
-        <v>0.911366926314584</v>
+        <v>2.006646700603563</v>
       </c>
       <c r="F4">
-        <v>0.9193942482462926</v>
+        <v>1.971105846864699</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.1280209040135819</v>
+        <v>-0.166036682263726</v>
       </c>
       <c r="C5">
-        <v>0.7182792096296192</v>
+        <v>0.6285186396184349</v>
       </c>
       <c r="D5">
-        <v>0.930922228823257</v>
+        <v>0.8305896743800926</v>
       </c>
       <c r="E5">
-        <v>0.9648431109891685</v>
+        <v>0.911366926314584</v>
       </c>
       <c r="F5">
-        <v>0.9825173072328391</v>
+        <v>0.9193942482462926</v>
       </c>
       <c r="G5">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.1613809308236712</v>
+        <v>-0.1280209040135819</v>
       </c>
       <c r="C6">
-        <v>0.6969901999678998</v>
+        <v>0.7182792096296192</v>
       </c>
       <c r="D6">
-        <v>0.7440183132057626</v>
+        <v>0.930922228823257</v>
       </c>
       <c r="E6">
-        <v>0.8625649617308615</v>
+        <v>0.9648431109891685</v>
       </c>
       <c r="F6">
-        <v>0.8718992504770149</v>
+        <v>0.9825173072328391</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.06310423029847312</v>
+        <v>-0.1613809308236712</v>
       </c>
       <c r="C7">
-        <v>0.6271081964451903</v>
+        <v>0.6969901999678998</v>
       </c>
       <c r="D7">
-        <v>0.5990212621699853</v>
+        <v>0.7440183132057626</v>
       </c>
       <c r="E7">
-        <v>0.7739646388369338</v>
+        <v>0.8625649617308615</v>
       </c>
       <c r="F7">
-        <v>0.7951283312657454</v>
+        <v>0.8718992504770149</v>
       </c>
       <c r="G7">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.003107267299192557</v>
+        <v>-0.06310423029847312</v>
       </c>
       <c r="C8">
-        <v>0.5393758537464697</v>
+        <v>0.6271081964451903</v>
       </c>
       <c r="D8">
-        <v>0.4187293164217235</v>
+        <v>0.5990212621699853</v>
       </c>
       <c r="E8">
-        <v>0.6470929735530463</v>
+        <v>0.7739646388369338</v>
       </c>
       <c r="F8">
-        <v>0.6683070442536863</v>
+        <v>0.7951283312657454</v>
       </c>
       <c r="G8">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01079506215789655</v>
+        <v>0.003107267299192557</v>
       </c>
       <c r="C9">
-        <v>0.4821603736089785</v>
+        <v>0.5393758537464697</v>
       </c>
       <c r="D9">
-        <v>0.3882225284189086</v>
+        <v>0.4187293164217235</v>
       </c>
       <c r="E9">
-        <v>0.6230750584150425</v>
+        <v>0.6470929735530463</v>
       </c>
       <c r="F9">
-        <v>0.6448471538599968</v>
+        <v>0.6683070442536863</v>
       </c>
       <c r="G9">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.03588466164625848</v>
+        <v>0.01079506215789655</v>
       </c>
       <c r="C10">
-        <v>0.5517454314036715</v>
+        <v>0.4821603736089785</v>
       </c>
       <c r="D10">
-        <v>0.4354142101678629</v>
+        <v>0.3882225284189086</v>
       </c>
       <c r="E10">
-        <v>0.6598592351159926</v>
+        <v>0.6230750584150425</v>
       </c>
       <c r="F10">
-        <v>0.6837549615721854</v>
+        <v>0.6448471538599968</v>
       </c>
       <c r="G10">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.009683504591838199</v>
+        <v>0.03588466164625848</v>
       </c>
       <c r="C11">
-        <v>0.5061424767813365</v>
+        <v>0.5517454314036715</v>
       </c>
       <c r="D11">
-        <v>0.3656888178714484</v>
+        <v>0.4354142101678629</v>
       </c>
       <c r="E11">
-        <v>0.6047220997048548</v>
+        <v>0.6598592351159926</v>
       </c>
       <c r="F11">
-        <v>0.6293340143181445</v>
+        <v>0.6837549615721854</v>
       </c>
       <c r="G11">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
